--- a/Chart Sheet.xlsx
+++ b/Chart Sheet.xlsx
@@ -43,46 +43,46 @@
     <t>C#</t>
   </si>
   <si>
+    <t>java - openjdk</t>
+  </si>
+  <si>
     <t>go</t>
   </si>
   <si>
-    <t>java - openjdk</t>
-  </si>
-  <si>
     <t>kotlin - java</t>
   </si>
   <si>
+    <t>dart</t>
+  </si>
+  <si>
     <t>nodejs</t>
   </si>
   <si>
+    <t>fortran</t>
+  </si>
+  <si>
     <t>scala</t>
   </si>
   <si>
-    <t>fortran</t>
-  </si>
-  <si>
-    <t>dart</t>
-  </si>
-  <si>
     <t>pascal</t>
   </si>
   <si>
+    <t>rust</t>
+  </si>
+  <si>
     <t>julia</t>
   </si>
   <si>
-    <t>rust</t>
-  </si>
-  <si>
     <t>lua</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>peal</t>
+  </si>
+  <si>
     <t>ruby</t>
-  </si>
-  <si>
-    <t>peal</t>
   </si>
   <si>
     <t>basic</t>
@@ -284,34 +284,34 @@
                     <c:v>C#</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>java - openjdk</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>go</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>java - openjdk</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>kotlin - java</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>dart</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>nodejs</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>scala</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>fortran</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>dart</c:v>
+                    <c:v>scala</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>pascal</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>rust</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
                     <c:v>julia</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>rust</c:v>
                   </c:pt>
                   <c:pt idx="13">
                     <c:v>lua</c:v>
@@ -320,10 +320,10 @@
                     <c:v>R</c:v>
                   </c:pt>
                   <c:pt idx="15">
+                    <c:v>peal</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
                     <c:v>ruby</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>peal</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>basic</c:v>
@@ -357,52 +357,52 @@
                   <c:v>0.028999999165534973</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.03099999949336052</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.03316999971866608</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03400000184774399</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05299999937415123</c:v>
+                  <c:v>0.05400000140070915</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0989999994635582</c:v>
+                  <c:v>0.06199999898672104</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.11299999803304672</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12961000204086304</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.12999999523162842</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1334799975156784</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.17399999499320984</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1979999989271164</c:v>
+                  <c:v>0.19099999964237213</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.19936999678611755</c:v>
+                  <c:v>0.30000001192092896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30000001192092896</c:v>
+                  <c:v>0.33878999948501587</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7277200222015381</c:v>
+                  <c:v>0.6933000087738037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1187400817871094</c:v>
+                  <c:v>2.843640089035034</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4.964509963989258</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.76230001449585</c:v>
+                  <c:v>7.781000137329102</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.693909645080566</c:v>
+                  <c:v>9.263509750366211</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>21.229000091552734</c:v>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>0.033169999718666077</v>
+        <v>0.030999999493360519</v>
       </c>
     </row>
     <row r="6">
@@ -1542,7 +1542,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>0.034000001847743988</v>
+        <v>0.033169999718666077</v>
       </c>
     </row>
     <row r="7">
@@ -1550,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4">
-        <v>0.05299999937415123</v>
+        <v>0.054000001400709152</v>
       </c>
     </row>
     <row r="8">
@@ -1558,7 +1558,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>0.098999999463558197</v>
+        <v>0.061999998986721039</v>
       </c>
     </row>
     <row r="9">
@@ -1566,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.11299999803304672</v>
       </c>
     </row>
     <row r="10">
@@ -1574,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>0.13347999751567841</v>
+        <v>0.12961000204086304</v>
       </c>
     </row>
     <row r="11">
@@ -1582,7 +1582,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <v>0.17399999499320984</v>
+        <v>0.12999999523162842</v>
       </c>
     </row>
     <row r="12">
@@ -1590,7 +1590,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>0.19799999892711639</v>
+        <v>0.19099999964237213</v>
       </c>
     </row>
     <row r="13">
@@ -1598,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>0.19936999678611755</v>
+        <v>0.30000001192092896</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>0.30000001192092896</v>
+        <v>0.33878999948501587</v>
       </c>
     </row>
     <row r="15">
@@ -1614,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>0.72772002220153809</v>
+        <v>0.69330000877380371</v>
       </c>
     </row>
     <row r="16">
@@ -1622,7 +1622,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>3.1187400817871094</v>
+        <v>2.8436400890350342</v>
       </c>
     </row>
     <row r="17">
@@ -1630,7 +1630,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4">
-        <v>4.9645099639892578</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1638,7 +1638,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>5</v>
+        <v>4.9645099639892578</v>
       </c>
     </row>
     <row r="19">
@@ -1646,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4">
-        <v>7.7623000144958496</v>
+        <v>7.7810001373291016</v>
       </c>
     </row>
     <row r="20">
@@ -1654,7 +1654,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4">
-        <v>8.6939096450805664</v>
+        <v>9.2635097503662109</v>
       </c>
     </row>
     <row r="21">

--- a/Chart Sheet.xlsx
+++ b/Chart Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Time</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>ruby</t>
+  </si>
+  <si>
+    <t>cobol</t>
   </si>
   <si>
     <t>basic</t>
@@ -270,9 +273,9 @@
           </c:spPr>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>데이터!$B$2:$B$22</c:f>
+              <c:f>데이터!$B$2:$B$23</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>gcc</c:v>
@@ -326,15 +329,18 @@
                     <c:v>ruby</c:v>
                   </c:pt>
                   <c:pt idx="17">
+                    <c:v>cobol</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
                     <c:v>basic</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>python</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>sql - sqlite</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>swift</c:v>
                   </c:pt>
                 </c:lvl>
@@ -343,10 +349,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$C$2:$C$22</c:f>
+              <c:f>데이터!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>0.000000;\-0.000000;0.000000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -399,15 +405,18 @@
                   <c:v>4.964509963989258</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>5.96999979019165</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>7.781000137329102</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>9.263509750366211</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>21.229000091552734</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>30.16596031188965</c:v>
                 </c:pt>
               </c:numCache>
@@ -1178,7 +1187,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="표1" displayName="표1" ref="B1:C22" headerRowCount="1" xr:uid="{9E72129A-C25B-49F0-A837-203ACA1D90B4}" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="표1" displayName="표1" ref="B1:C23" headerRowCount="1" xr:uid="{9E72129A-C25B-49F0-A837-203ACA1D90B4}" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Time" xr3:uid="{7B3912C7-9350-4952-A2E9-D650A8ACF9FC}" dataDxfId="1"/>
     <tableColumn id="2" name="시간" xr3:uid="{02D236E4-0CAD-41C0-A234-CB6778C9DFBF}" dataDxfId="0"/>
@@ -1485,10 +1494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="B1:C22"/>
+  <dimension ref="B1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" customHeight="1"/>
@@ -1646,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4">
-        <v>7.7810001373291016</v>
+        <v>5.9699997901916504</v>
       </c>
     </row>
     <row r="20">
@@ -1654,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4">
-        <v>9.2635097503662109</v>
+        <v>7.7810001373291016</v>
       </c>
     </row>
     <row r="21">
@@ -1662,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4">
-        <v>21.229000091552734</v>
+        <v>9.2635097503662109</v>
       </c>
     </row>
     <row r="22">
@@ -1670,6 +1679,14 @@
         <v>22</v>
       </c>
       <c r="C22" s="4">
+        <v>21.229000091552734</v>
+      </c>
+    </row>
+    <row r="23" ht="17.6" customHeight="true">
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4">
         <v>30.165960311889648</v>
       </c>
     </row>

--- a/Chart Sheet.xlsx
+++ b/Chart Sheet.xlsx
@@ -49,6 +49,9 @@
     <t>go</t>
   </si>
   <si>
+    <t>swift</t>
+  </si>
+  <si>
     <t>kotlin - java</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>sql - sqlite</t>
-  </si>
-  <si>
-    <t>swift</t>
   </si>
 </sst>
 </file>
@@ -293,55 +293,55 @@
                     <c:v>go</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>swift</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>kotlin - java</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>dart</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>nodejs</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>fortran</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>scala</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>pascal</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>rust</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>julia</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>lua</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>R</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>peal</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>ruby</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>cobol</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>basic</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>python</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>sql - sqlite</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>swift</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -369,55 +369,55 @@
                   <c:v>0.03316999971866608</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.04506999999284744</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.05400000140070915</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.06199999898672104</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.11299999803304672</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.12961000204086304</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.12999999523162842</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.19099999964237213</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.30000001192092896</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.33878999948501587</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.6933000087738037</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>2.843640089035034</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>4.964509963989258</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>5.96999979019165</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>7.781000137329102</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>9.263509750366211</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21.229000091552734</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30.16596031188965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4">
-        <v>0.054000001400709152</v>
+        <v>0.045069999992847443</v>
       </c>
     </row>
     <row r="8">
@@ -1567,7 +1567,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>0.061999998986721039</v>
+        <v>0.054000001400709152</v>
       </c>
     </row>
     <row r="9">
@@ -1575,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <v>0.11299999803304672</v>
+        <v>0.061999998986721039</v>
       </c>
     </row>
     <row r="10">
@@ -1583,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>0.12961000204086304</v>
+        <v>0.11299999803304672</v>
       </c>
     </row>
     <row r="11">
@@ -1591,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.12961000204086304</v>
       </c>
     </row>
     <row r="12">
@@ -1599,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>0.19099999964237213</v>
+        <v>0.12999999523162842</v>
       </c>
     </row>
     <row r="13">
@@ -1607,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>0.30000001192092896</v>
+        <v>0.19099999964237213</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>0.33878999948501587</v>
+        <v>0.30000001192092896</v>
       </c>
     </row>
     <row r="15">
@@ -1623,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>0.69330000877380371</v>
+        <v>0.33878999948501587</v>
       </c>
     </row>
     <row r="16">
@@ -1631,7 +1631,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>2.8436400890350342</v>
+        <v>0.69330000877380371</v>
       </c>
     </row>
     <row r="17">
@@ -1639,7 +1639,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4">
-        <v>4</v>
+        <v>2.8436400890350342</v>
       </c>
     </row>
     <row r="18">
@@ -1647,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>4.9645099639892578</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1655,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4">
-        <v>5.9699997901916504</v>
+        <v>4.9645099639892578</v>
       </c>
     </row>
     <row r="20">
@@ -1663,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4">
-        <v>7.7810001373291016</v>
+        <v>5.9699997901916504</v>
       </c>
     </row>
     <row r="21">
@@ -1671,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4">
-        <v>9.2635097503662109</v>
+        <v>7.7810001373291016</v>
       </c>
     </row>
     <row r="22">
@@ -1679,7 +1679,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4">
-        <v>21.229000091552734</v>
+        <v>9.2635097503662109</v>
       </c>
     </row>
     <row r="23" ht="17.6" customHeight="true">
@@ -1687,7 +1687,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="4">
-        <v>30.165960311889648</v>
+        <v>21.229000091552734</v>
       </c>
     </row>
   </sheetData>

--- a/Chart Sheet.xlsx
+++ b/Chart Sheet.xlsx
@@ -40,18 +40,21 @@
     <t>assembly</t>
   </si>
   <si>
+    <t>java - openjdk</t>
+  </si>
+  <si>
     <t>C#</t>
   </si>
   <si>
-    <t>java - openjdk</t>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>swift</t>
   </si>
   <si>
     <t>go</t>
   </si>
   <si>
-    <t>swift</t>
-  </si>
-  <si>
     <t>kotlin - java</t>
   </si>
   <si>
@@ -61,40 +64,37 @@
     <t>nodejs</t>
   </si>
   <si>
+    <t>scala</t>
+  </si>
+  <si>
+    <t>julia</t>
+  </si>
+  <si>
     <t>fortran</t>
   </si>
   <si>
-    <t>scala</t>
-  </si>
-  <si>
     <t>pascal</t>
   </si>
   <si>
-    <t>rust</t>
-  </si>
-  <si>
-    <t>julia</t>
-  </si>
-  <si>
     <t>lua</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>ruby</t>
+  </si>
+  <si>
     <t>peal</t>
   </si>
   <si>
-    <t>ruby</t>
-  </si>
-  <si>
     <t>cobol</t>
   </si>
   <si>
+    <t>python</t>
+  </si>
+  <si>
     <t>basic</t>
-  </si>
-  <si>
-    <t>python</t>
   </si>
   <si>
     <t>sql - sqlite</t>
@@ -284,40 +284,40 @@
                     <c:v>assembly</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>java - openjdk</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>C#</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>java - openjdk</c:v>
-                  </c:pt>
                   <c:pt idx="4">
-                    <c:v>go</c:v>
+                    <c:v>rust</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>swift</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>go</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>kotlin - java</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>dart</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>nodejs</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>fortran</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>scala</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>julia</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>fortran</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
                     <c:v>pascal</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>rust</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>julia</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>lua</c:v>
@@ -326,19 +326,19 @@
                     <c:v>R</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>ruby</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
                     <c:v>peal</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>ruby</c:v>
                   </c:pt>
                   <c:pt idx="18">
                     <c:v>cobol</c:v>
                   </c:pt>
                   <c:pt idx="19">
+                    <c:v>python</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
                     <c:v>basic</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>python</c:v>
                   </c:pt>
                   <c:pt idx="21">
                     <c:v>sql - sqlite</c:v>
@@ -360,64 +360,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.028999999165534973</c:v>
+                  <c:v>0.024000000208616257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03099999949336052</c:v>
+                  <c:v>0.026000000536441803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03316999971866608</c:v>
+                  <c:v>0.03999999910593033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04506999999284744</c:v>
+                  <c:v>0.04318000003695488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.05400000140070915</c:v>
+                  <c:v>0.043310001492500305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.06199999898672104</c:v>
+                  <c:v>0.04399999976158142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11299999803304672</c:v>
+                  <c:v>0.04899999871850014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12961000204086304</c:v>
+                  <c:v>0.06599999964237213</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12999999523162842</c:v>
+                  <c:v>0.08900000154972076</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.19099999964237213</c:v>
+                  <c:v>0.1642100065946579</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30000001192092896</c:v>
+                  <c:v>0.1732500046491623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.33878999948501587</c:v>
+                  <c:v>0.1889999955892563</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.6933000087738037</c:v>
+                  <c:v>0.757390022277832</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.843640089035034</c:v>
+                  <c:v>3.492460012435913</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>4.330039978027344</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.964509963989258</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.96999979019165</c:v>
+                  <c:v>5.820000171661377</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.781000137329102</c:v>
+                  <c:v>8.444780349731445</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.263509750366211</c:v>
+                  <c:v>8.881799697875977</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.229000091552734</c:v>
+                  <c:v>21.981000900268555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>0.028999999165534973</v>
+        <v>0.024000000208616257</v>
       </c>
     </row>
     <row r="5">
@@ -1543,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>0.030999999493360519</v>
+        <v>0.026000000536441803</v>
       </c>
     </row>
     <row r="6">
@@ -1551,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>0.033169999718666077</v>
+        <v>0.039999999105930328</v>
       </c>
     </row>
     <row r="7">
@@ -1559,7 +1559,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4">
-        <v>0.045069999992847443</v>
+        <v>0.04318000003695488</v>
       </c>
     </row>
     <row r="8">
@@ -1567,7 +1567,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>0.054000001400709152</v>
+        <v>0.043310001492500305</v>
       </c>
     </row>
     <row r="9">
@@ -1575,7 +1575,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <v>0.061999998986721039</v>
+        <v>0.043999999761581421</v>
       </c>
     </row>
     <row r="10">
@@ -1583,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>0.11299999803304672</v>
+        <v>0.048999998718500137</v>
       </c>
     </row>
     <row r="11">
@@ -1591,7 +1591,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <v>0.12961000204086304</v>
+        <v>0.065999999642372131</v>
       </c>
     </row>
     <row r="12">
@@ -1599,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>0.12999999523162842</v>
+        <v>0.089000001549720764</v>
       </c>
     </row>
     <row r="13">
@@ -1607,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>0.19099999964237213</v>
+        <v>0.1642100065946579</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>0.30000001192092896</v>
+        <v>0.17325000464916229</v>
       </c>
     </row>
     <row r="15">
@@ -1623,7 +1623,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>0.33878999948501587</v>
+        <v>0.18899999558925629</v>
       </c>
     </row>
     <row r="16">
@@ -1631,7 +1631,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>0.69330000877380371</v>
+        <v>0.75739002227783203</v>
       </c>
     </row>
     <row r="17">
@@ -1639,7 +1639,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4">
-        <v>2.8436400890350342</v>
+        <v>3.4924600124359131</v>
       </c>
     </row>
     <row r="18">
@@ -1647,7 +1647,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>4</v>
+        <v>4.3300399780273438</v>
       </c>
     </row>
     <row r="19">
@@ -1655,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4">
-        <v>4.9645099639892578</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1663,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4">
-        <v>5.9699997901916504</v>
+        <v>5.820000171661377</v>
       </c>
     </row>
     <row r="21">
@@ -1671,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4">
-        <v>7.7810001373291016</v>
+        <v>8.4447803497314453</v>
       </c>
     </row>
     <row r="22">
@@ -1679,7 +1679,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4">
-        <v>9.2635097503662109</v>
+        <v>8.8817996978759766</v>
       </c>
     </row>
     <row r="23" ht="17.6" customHeight="true">
@@ -1687,7 +1687,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="4">
-        <v>21.229000091552734</v>
+        <v>21.981000900268555</v>
       </c>
     </row>
   </sheetData>

--- a/Chart Sheet.xlsx
+++ b/Chart Sheet.xlsx
@@ -21,7 +21,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Time</t>
+    <t>언어</t>
+    <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -40,55 +41,55 @@
     <t>assembly</t>
   </si>
   <si>
+    <t>C#</t>
+  </si>
+  <si>
     <t>java - openjdk</t>
   </si>
   <si>
-    <t>C#</t>
+    <t>go</t>
+  </si>
+  <si>
+    <t>kotlin - java</t>
+  </si>
+  <si>
+    <t>swift</t>
+  </si>
+  <si>
+    <t>nodejs</t>
+  </si>
+  <si>
+    <t>dart</t>
+  </si>
+  <si>
+    <t>fortran</t>
+  </si>
+  <si>
+    <t>scala</t>
+  </si>
+  <si>
+    <t>pascal</t>
+  </si>
+  <si>
+    <t>julia</t>
   </si>
   <si>
     <t>rust</t>
   </si>
   <si>
-    <t>swift</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>kotlin - java</t>
-  </si>
-  <si>
-    <t>dart</t>
-  </si>
-  <si>
-    <t>nodejs</t>
-  </si>
-  <si>
-    <t>scala</t>
-  </si>
-  <si>
-    <t>julia</t>
-  </si>
-  <si>
-    <t>fortran</t>
-  </si>
-  <si>
-    <t>pascal</t>
-  </si>
-  <si>
     <t>lua</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>cobol</t>
+  </si>
+  <si>
     <t>ruby</t>
   </si>
   <si>
     <t>peal</t>
-  </si>
-  <si>
-    <t>cobol</t>
   </si>
   <si>
     <t>python</t>
@@ -284,40 +285,40 @@
                     <c:v>assembly</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>C#</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>java - openjdk</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>C#</c:v>
-                  </c:pt>
                   <c:pt idx="4">
-                    <c:v>rust</c:v>
+                    <c:v>go</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>kotlin - java</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>swift</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>go</c:v>
-                  </c:pt>
                   <c:pt idx="7">
-                    <c:v>kotlin - java</c:v>
+                    <c:v>nodejs</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>dart</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>nodejs</c:v>
+                    <c:v>fortran</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>scala</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>pascal</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
                     <c:v>julia</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>fortran</c:v>
-                  </c:pt>
                   <c:pt idx="13">
-                    <c:v>pascal</c:v>
+                    <c:v>rust</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>lua</c:v>
@@ -326,13 +327,13 @@
                     <c:v>R</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>cobol</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
                     <c:v>ruby</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>peal</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>cobol</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>python</c:v>
@@ -360,64 +361,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.024000000208616257</c:v>
+                  <c:v>0.028999999165534973</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.026000000536441803</c:v>
+                  <c:v>0.03099999949336052</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03999999910593033</c:v>
+                  <c:v>0.03901999816298485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04318000003695488</c:v>
+                  <c:v>0.05400000140070915</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.043310001492500305</c:v>
+                  <c:v>0.08969999849796295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.04399999976158142</c:v>
+                  <c:v>0.09300000220537186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04899999871850014</c:v>
+                  <c:v>0.10499999672174454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.06599999964237213</c:v>
+                  <c:v>0.15563000738620758</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.08900000154972076</c:v>
+                  <c:v>0.1599999964237213</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1642100065946579</c:v>
+                  <c:v>0.16500000655651093</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1732500046491623</c:v>
+                  <c:v>0.24895000457763672</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1889999955892563</c:v>
+                  <c:v>0.30000001192092896</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.757390022277832</c:v>
+                  <c:v>0.7549099922180176</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.492460012435913</c:v>
+                  <c:v>2.843640089035034</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.330039978027344</c:v>
+                  <c:v>3.1600000858306885</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>4.397369861602783</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.820000171661377</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.444780349731445</c:v>
+                  <c:v>10.082269668579102</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.881799697875977</c:v>
+                  <c:v>10.101340293884277</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.981000900268555</c:v>
+                  <c:v>31.24799919128418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,7 +1190,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="표1" displayName="표1" ref="B1:C23" headerRowCount="1" xr:uid="{9E72129A-C25B-49F0-A837-203ACA1D90B4}" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Time" xr3:uid="{7B3912C7-9350-4952-A2E9-D650A8ACF9FC}" dataDxfId="1"/>
+    <tableColumn id="1" name="언어" xr3:uid="{7B3912C7-9350-4952-A2E9-D650A8ACF9FC}" dataDxfId="1"/>
     <tableColumn id="2" name="시간" xr3:uid="{02D236E4-0CAD-41C0-A234-CB6778C9DFBF}" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1535,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>0.024000000208616257</v>
+        <v>0.028999999165534973</v>
       </c>
     </row>
     <row r="5">
@@ -1543,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>0.026000000536441803</v>
+        <v>0.030999999493360519</v>
       </c>
     </row>
     <row r="6">
@@ -1551,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>0.039999999105930328</v>
+        <v>0.039019998162984848</v>
       </c>
     </row>
     <row r="7">
@@ -1559,7 +1560,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4">
-        <v>0.04318000003695488</v>
+        <v>0.054000001400709152</v>
       </c>
     </row>
     <row r="8">
@@ -1567,7 +1568,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>0.043310001492500305</v>
+        <v>0.089699998497962952</v>
       </c>
     </row>
     <row r="9">
@@ -1575,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <v>0.043999999761581421</v>
+        <v>0.093000002205371857</v>
       </c>
     </row>
     <row r="10">
@@ -1583,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>0.048999998718500137</v>
+        <v>0.10499999672174454</v>
       </c>
     </row>
     <row r="11">
@@ -1591,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <v>0.065999999642372131</v>
+        <v>0.15563000738620758</v>
       </c>
     </row>
     <row r="12">
@@ -1599,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>0.089000001549720764</v>
+        <v>0.15999999642372131</v>
       </c>
     </row>
     <row r="13">
@@ -1607,7 +1608,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>0.1642100065946579</v>
+        <v>0.16500000655651093</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1616,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>0.17325000464916229</v>
+        <v>0.24895000457763672</v>
       </c>
     </row>
     <row r="15">
@@ -1623,7 +1624,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>0.18899999558925629</v>
+        <v>0.30000001192092896</v>
       </c>
     </row>
     <row r="16">
@@ -1631,7 +1632,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>0.75739002227783203</v>
+        <v>0.75490999221801758</v>
       </c>
     </row>
     <row r="17">
@@ -1639,7 +1640,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4">
-        <v>3.4924600124359131</v>
+        <v>2.8436400890350342</v>
       </c>
     </row>
     <row r="18">
@@ -1647,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>4.3300399780273438</v>
+        <v>3.1600000858306885</v>
       </c>
     </row>
     <row r="19">
@@ -1655,7 +1656,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4">
-        <v>5</v>
+        <v>4.3973698616027832</v>
       </c>
     </row>
     <row r="20">
@@ -1663,7 +1664,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4">
-        <v>5.820000171661377</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1671,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4">
-        <v>8.4447803497314453</v>
+        <v>10.082269668579102</v>
       </c>
     </row>
     <row r="22">
@@ -1679,7 +1680,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4">
-        <v>8.8817996978759766</v>
+        <v>10.101340293884277</v>
       </c>
     </row>
     <row r="23" ht="17.6" customHeight="true">
@@ -1687,7 +1688,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="4">
-        <v>21.981000900268555</v>
+        <v>31.24799919128418</v>
       </c>
     </row>
   </sheetData>

--- a/Chart Sheet.xlsx
+++ b/Chart Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>언어</t>
     <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
@@ -47,6 +47,12 @@
     <t>java - openjdk</t>
   </si>
   <si>
+    <t>pascal</t>
+  </si>
+  <si>
+    <t>dart</t>
+  </si>
+  <si>
     <t>go</t>
   </si>
   <si>
@@ -59,37 +65,34 @@
     <t>nodejs</t>
   </si>
   <si>
-    <t>dart</t>
-  </si>
-  <si>
     <t>fortran</t>
   </si>
   <si>
     <t>scala</t>
   </si>
   <si>
-    <t>pascal</t>
-  </si>
-  <si>
     <t>julia</t>
   </si>
   <si>
     <t>rust</t>
   </si>
   <si>
+    <t>python -  pypy</t>
+  </si>
+  <si>
     <t>lua</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>ruby</t>
+  </si>
+  <si>
+    <t>peal</t>
+  </si>
+  <si>
     <t>cobol</t>
-  </si>
-  <si>
-    <t>ruby</t>
-  </si>
-  <si>
-    <t>peal</t>
   </si>
   <si>
     <t>python</t>
@@ -274,9 +277,9 @@
           </c:spPr>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>데이터!$B$2:$B$23</c:f>
+              <c:f>데이터!$B$2:$B$31</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="30"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>gcc</c:v>
@@ -291,28 +294,28 @@
                     <c:v>java - openjdk</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>pascal</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>dart</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>go</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="7">
                     <c:v>kotlin - java</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>swift</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="9">
                     <c:v>nodejs</c:v>
                   </c:pt>
-                  <c:pt idx="8">
-                    <c:v>dart</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>fortran</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>scala</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>pascal</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>julia</c:v>
@@ -321,13 +324,13 @@
                     <c:v>rust</c:v>
                   </c:pt>
                   <c:pt idx="14">
+                    <c:v>python -  pypy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
                     <c:v>lua</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>R</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>cobol</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>ruby</c:v>
@@ -336,12 +339,15 @@
                     <c:v>peal</c:v>
                   </c:pt>
                   <c:pt idx="19">
+                    <c:v>cobol</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
                     <c:v>python</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>basic</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="22">
                     <c:v>sql - sqlite</c:v>
                   </c:pt>
                 </c:lvl>
@@ -350,10 +356,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>데이터!$C$2:$C$23</c:f>
+              <c:f>데이터!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000000;\-0.000000;0.000000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -367,57 +373,60 @@
                   <c:v>0.03099999949336052</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.03200000151991844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03700000047683716</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.03901999816298485</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.05400000140070915</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>0.08969999849796295</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0.09300000220537186</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.10499999672174454</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.15563000738620758</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.1599999964237213</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16500000655651093</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24895000457763672</c:v>
+                  <c:v>0.1611499935388565</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.30000001192092896</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.34404000639915466</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.7549099922180176</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>2.843640089035034</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.1600000858306885</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.397369861602783</c:v>
+                  <c:v>3.6054000854492188</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.082269668579102</c:v>
+                  <c:v>5.96999979019165</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>8.632530212402344</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>10.101340293884277</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>31.24799919128418</c:v>
                 </c:pt>
               </c:numCache>
@@ -1188,7 +1197,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="표1" displayName="표1" ref="B1:C23" headerRowCount="1" xr:uid="{9E72129A-C25B-49F0-A837-203ACA1D90B4}" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="표1" displayName="표1" ref="B1:C31" headerRowCount="1" xr:uid="{9E72129A-C25B-49F0-A837-203ACA1D90B4}" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="언어" xr3:uid="{7B3912C7-9350-4952-A2E9-D650A8ACF9FC}" dataDxfId="1"/>
     <tableColumn id="2" name="시간" xr3:uid="{02D236E4-0CAD-41C0-A234-CB6778C9DFBF}" dataDxfId="0"/>
@@ -1495,10 +1504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="B1:C23"/>
+  <dimension ref="B1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" customHeight="1"/>
@@ -1552,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>0.039019998162984848</v>
+        <v>0.032000001519918442</v>
       </c>
     </row>
     <row r="7">
@@ -1560,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4">
-        <v>0.054000001400709152</v>
+        <v>0.037000000476837158</v>
       </c>
     </row>
     <row r="8">
@@ -1568,7 +1577,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>0.089699998497962952</v>
+        <v>0.039019998162984848</v>
       </c>
     </row>
     <row r="9">
@@ -1576,7 +1585,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <v>0.093000002205371857</v>
+        <v>0.054000001400709152</v>
       </c>
     </row>
     <row r="10">
@@ -1584,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>0.10499999672174454</v>
+        <v>0.089699998497962952</v>
       </c>
     </row>
     <row r="11">
@@ -1592,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <v>0.15563000738620758</v>
+        <v>0.093000002205371857</v>
       </c>
     </row>
     <row r="12">
@@ -1600,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>0.15999999642372131</v>
+        <v>0.15563000738620758</v>
       </c>
     </row>
     <row r="13">
@@ -1608,7 +1617,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>0.16500000655651093</v>
+        <v>0.15999999642372131</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1625,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>0.24895000457763672</v>
+        <v>0.16114999353885651</v>
       </c>
     </row>
     <row r="15">
@@ -1632,7 +1641,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>0.75490999221801758</v>
+        <v>0.34404000639915466</v>
       </c>
     </row>
     <row r="17">
@@ -1640,7 +1649,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4">
-        <v>2.8436400890350342</v>
+        <v>0.75490999221801758</v>
       </c>
     </row>
     <row r="18">
@@ -1648,7 +1657,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>3.1600000858306885</v>
+        <v>2.8436400890350342</v>
       </c>
     </row>
     <row r="19">
@@ -1656,7 +1665,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4">
-        <v>4.3973698616027832</v>
+        <v>3.6054000854492188</v>
       </c>
     </row>
     <row r="20">
@@ -1672,7 +1681,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4">
-        <v>10.082269668579102</v>
+        <v>5.9699997901916504</v>
       </c>
     </row>
     <row r="22">
@@ -1680,7 +1689,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4">
-        <v>10.101340293884277</v>
+        <v>8.6325302124023438</v>
       </c>
     </row>
     <row r="23" ht="17.6" customHeight="true">
@@ -1688,8 +1697,44 @@
         <v>23</v>
       </c>
       <c r="C23" s="4">
+        <v>10.101340293884277</v>
+      </c>
+    </row>
+    <row r="24" ht="17.6" customHeight="true">
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4">
         <v>31.24799919128418</v>
       </c>
+    </row>
+    <row r="25" ht="17.6" customHeight="true">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" ht="17.6" customHeight="true">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" ht="17.6" customHeight="true">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" ht="17.6" customHeight="true">
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" ht="17.6" customHeight="true">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" ht="17.6" customHeight="true">
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" ht="17.6" customHeight="true">
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Chart Sheet.xlsx
+++ b/Chart Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>언어</t>
     <phoneticPr xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" fontId="1" type="noConversion"/>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>pascal</t>
+  </si>
+  <si>
+    <t>fortran - intel</t>
   </si>
   <si>
     <t>dart</t>
@@ -297,57 +300,60 @@
                     <c:v>pascal</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>fortran - intel</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>dart</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>go</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>kotlin - java</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>swift</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>nodejs</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>fortran</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>scala</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>julia</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>rust</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>python -  pypy</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>lua</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>R</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>ruby</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>peal</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="20">
                     <c:v>cobol</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>python</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="22">
                     <c:v>basic</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>sql - sqlite</c:v>
                   </c:pt>
                 </c:lvl>
@@ -376,57 +382,60 @@
                   <c:v>0.03200000151991844</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.032419998198747635</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.03700000047683716</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.03901999816298485</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.05400000140070915</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.08969999849796295</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.09300000220537186</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.15563000738620758</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.12481000274419785</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.1599999964237213</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.1611499935388565</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.30000001192092896</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.34404000639915466</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.7549099922180176</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2.843640089035034</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3.6054000854492188</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>5.96999979019165</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>8.632530212402344</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>10.101340293884277</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>31.24799919128418</c:v>
                 </c:pt>
               </c:numCache>
@@ -1569,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4">
-        <v>0.037000000476837158</v>
+        <v>0.032419998198747635</v>
       </c>
     </row>
     <row r="8">
@@ -1577,7 +1586,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>0.039019998162984848</v>
+        <v>0.037000000476837158</v>
       </c>
     </row>
     <row r="9">
@@ -1585,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <v>0.054000001400709152</v>
+        <v>0.039019998162984848</v>
       </c>
     </row>
     <row r="10">
@@ -1593,7 +1602,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>0.089699998497962952</v>
+        <v>0.054000001400709152</v>
       </c>
     </row>
     <row r="11">
@@ -1601,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <v>0.093000002205371857</v>
+        <v>0.089699998497962952</v>
       </c>
     </row>
     <row r="12">
@@ -1609,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>0.15563000738620758</v>
+        <v>0.093000002205371857</v>
       </c>
     </row>
     <row r="13">
@@ -1617,7 +1626,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4">
-        <v>0.15999999642372131</v>
+        <v>0.12481000274419785</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>0.16114999353885651</v>
+        <v>0.15999999642372131</v>
       </c>
     </row>
     <row r="15">
@@ -1633,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4">
-        <v>0.30000001192092896</v>
+        <v>0.16114999353885651</v>
       </c>
     </row>
     <row r="16">
@@ -1641,7 +1650,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>0.34404000639915466</v>
+        <v>0.30000001192092896</v>
       </c>
     </row>
     <row r="17">
@@ -1649,7 +1658,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4">
-        <v>0.75490999221801758</v>
+        <v>0.34404000639915466</v>
       </c>
     </row>
     <row r="18">
@@ -1657,7 +1666,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4">
-        <v>2.8436400890350342</v>
+        <v>0.75490999221801758</v>
       </c>
     </row>
     <row r="19">
@@ -1665,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4">
-        <v>3.6054000854492188</v>
+        <v>2.8436400890350342</v>
       </c>
     </row>
     <row r="20">
@@ -1673,7 +1682,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4">
-        <v>5</v>
+        <v>3.6054000854492188</v>
       </c>
     </row>
     <row r="21">
@@ -1681,7 +1690,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4">
-        <v>5.9699997901916504</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1689,7 +1698,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4">
-        <v>8.6325302124023438</v>
+        <v>5.9699997901916504</v>
       </c>
     </row>
     <row r="23" ht="17.6" customHeight="true">
@@ -1697,7 +1706,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="4">
-        <v>10.101340293884277</v>
+        <v>8.6325302124023438</v>
       </c>
     </row>
     <row r="24" ht="17.6" customHeight="true">
@@ -1705,12 +1714,16 @@
         <v>24</v>
       </c>
       <c r="C24" s="4">
+        <v>10.101340293884277</v>
+      </c>
+    </row>
+    <row r="25" ht="17.6" customHeight="true">
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="4">
         <v>31.24799919128418</v>
       </c>
-    </row>
-    <row r="25" ht="17.6" customHeight="true">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
     </row>
     <row r="26" ht="17.6" customHeight="true">
       <c r="B26" s="3"/>
